--- a/branches/master/CodeSystem-cs-patient-gender.xlsx
+++ b/branches/master/CodeSystem-cs-patient-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T09:27:38+00:00</t>
+    <t>2023-02-22T20:48:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
